--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>118.069.171.118,07788</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
   </si>
 </sst>
 </file>
@@ -12403,8 +12427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12617,7 +12641,9 @@
       <c r="B6" s="61">
         <v>44866</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44867</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12629,16 +12655,32 @@
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
       <c r="U6" s="86" t="s">
@@ -12656,7 +12698,9 @@
       <c r="B7" s="61">
         <v>44866</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44867</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -12676,12 +12720,22 @@
         <v>67</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>76</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
       <c r="U7" s="87"/>
@@ -12697,7 +12751,9 @@
       <c r="B8" s="61">
         <v>44866</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44867</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -13089,7 +13145,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13121,7 +13177,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13430,7 +13486,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13590,7 +13646,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13622,7 +13678,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14324,9 +14380,7 @@
       <c r="I61" s="52"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L61" s="39"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
@@ -14349,9 +14403,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L62" s="39"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
@@ -14374,9 +14426,7 @@
       <c r="I63" s="52"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L63" s="39"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
@@ -14399,9 +14449,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L64" s="39"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
@@ -14424,9 +14472,7 @@
       <c r="I65" s="52"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="L65" s="39"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
@@ -16981,8 +17027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17195,7 +17241,9 @@
       <c r="B6" s="61">
         <v>44866</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44868</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -17207,16 +17255,34 @@
         <v>63</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="86" t="s">
@@ -17631,7 +17697,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -18100,7 +18166,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18164,7 +18230,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Xóa log</t>
   </si>
 </sst>
 </file>
@@ -746,6 +758,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,30 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,39 +1142,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1207,58 +1219,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1283,23 +1295,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1337,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1356,7 +1368,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1397,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1426,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1443,7 +1455,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1484,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1513,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1532,7 +1544,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1561,7 +1573,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1590,7 +1602,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1619,7 +1631,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3335,13 +3347,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3353,6 +3358,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3396,39 +3408,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3473,58 +3485,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3549,23 +3561,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3591,7 +3603,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3622,7 +3634,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3651,7 +3663,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3692,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3709,7 +3721,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3738,7 +3750,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3798,7 +3810,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3827,7 +3839,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3856,7 +3868,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3885,7 +3897,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5601,6 +5613,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5612,13 +5631,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5662,39 +5674,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5739,58 +5751,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5815,23 +5827,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,7 +5869,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5888,7 +5900,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5917,7 +5929,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5946,7 +5958,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5975,7 +5987,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6004,7 +6016,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6033,7 +6045,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6064,7 +6076,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6093,7 +6105,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6122,7 +6134,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6151,7 +6163,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7867,6 +7879,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7878,13 +7897,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7928,39 +7940,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8005,58 +8017,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8081,23 +8093,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8123,7 +8135,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8154,7 +8166,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8183,7 +8195,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8212,7 +8224,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8241,7 +8253,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8270,7 +8282,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8299,7 +8311,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8330,7 +8342,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8359,7 +8371,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8388,7 +8400,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8417,7 +8429,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10133,6 +10145,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10144,13 +10163,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10194,39 +10206,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10271,58 +10283,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10347,23 +10359,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10389,7 +10401,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10420,7 +10432,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10449,7 +10461,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10478,7 +10490,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10507,7 +10519,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10536,7 +10548,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10565,7 +10577,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10596,7 +10608,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10625,7 +10637,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10654,7 +10666,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10683,7 +10695,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12399,6 +12411,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12410,13 +12429,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12427,8 +12439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:N14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12460,41 +12472,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12539,58 +12551,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12615,23 +12627,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12683,7 +12695,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12738,7 +12750,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12793,7 +12805,7 @@
       </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12803,26 +12815,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="61">
+        <v>44869</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44869</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183034557574</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>73</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="K9" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12832,26 +12870,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="61">
+        <v>44869</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44869</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183038501578</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="64"/>
-      <c r="K10" s="75"/>
+      <c r="K10" s="66" t="s">
+        <v>67</v>
+      </c>
       <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="M10" s="66" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="67"/>
+      <c r="O10" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12880,7 +12946,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12909,7 +12975,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12940,7 +13006,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12969,7 +13035,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12998,7 +13064,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13027,7 +13093,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13145,7 +13211,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13614,7 +13680,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13646,7 +13712,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13678,7 +13744,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14733,6 +14799,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14744,13 +14817,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14794,39 +14860,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14871,58 +14937,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14947,23 +15013,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,7 +15055,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15020,7 +15086,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15049,7 +15115,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15078,7 +15144,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15107,7 +15173,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15136,7 +15202,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15165,7 +15231,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15196,7 +15262,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15225,7 +15291,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15254,7 +15320,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15283,7 +15349,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16999,6 +17065,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17010,13 +17083,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17027,7 +17093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -17060,41 +17126,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17139,58 +17205,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17215,23 +17281,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17285,7 +17351,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17316,7 +17382,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17345,7 +17411,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17374,7 +17440,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17403,7 +17469,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17432,7 +17498,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17461,7 +17527,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17492,7 +17558,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17521,7 +17587,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17550,7 +17616,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17579,7 +17645,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19295,6 +19361,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19306,13 +19379,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19356,39 +19422,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19433,58 +19499,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19509,23 +19575,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19551,7 +19617,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19582,7 +19648,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19611,7 +19677,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19640,7 +19706,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19669,7 +19735,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19698,7 +19764,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19727,7 +19793,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19758,7 +19824,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19787,7 +19853,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19816,7 +19882,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19845,7 +19911,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21076,13 +21142,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21094,6 +21153,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -860,6 +860,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,30 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,41 +1244,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1323,58 +1323,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
@@ -1399,23 +1399,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1500,7 +1500,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1676,7 +1676,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3479,13 +3479,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3497,6 +3490,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3540,41 +3540,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3619,58 +3619,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -3695,23 +3695,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3786,7 +3786,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3974,7 +3974,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5777,6 +5777,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5788,13 +5795,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5805,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5838,41 +5838,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5917,58 +5917,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -5993,23 +5993,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6047,7 +6047,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6090,7 +6090,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6115,7 +6115,9 @@
       <c r="H8" s="60"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="38"/>
+      <c r="K8" s="55" t="s">
+        <v>113</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -6125,7 +6127,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6166,7 +6168,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6205,7 +6207,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6234,7 +6236,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6263,7 +6265,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6294,7 +6296,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6323,7 +6325,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6352,7 +6354,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6381,7 +6383,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8097,6 +8099,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8108,13 +8117,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8158,39 +8160,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8235,58 +8237,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -8311,23 +8313,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8359,7 +8361,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8396,7 +8398,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8431,7 +8433,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8466,7 +8468,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8501,7 +8503,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8536,7 +8538,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8565,7 +8567,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8596,7 +8598,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8625,7 +8627,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8654,7 +8656,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8683,7 +8685,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10399,13 +10401,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10417,6 +10412,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10460,41 +10462,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10539,58 +10541,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -10615,23 +10617,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10683,7 +10685,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10738,7 +10740,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10793,7 +10795,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10848,7 +10850,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10905,7 +10907,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10934,7 +10936,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10963,7 +10965,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10994,7 +10996,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11023,7 +11025,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11052,7 +11054,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11081,7 +11083,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12787,13 +12789,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12805,6 +12800,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12848,41 +12850,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12927,58 +12929,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -13003,23 +13005,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13073,7 +13075,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13104,7 +13106,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13133,7 +13135,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13162,7 +13164,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13191,7 +13193,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13220,7 +13222,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13249,7 +13251,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13280,7 +13282,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13309,7 +13311,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13338,7 +13340,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13367,7 +13369,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15083,13 +15085,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15101,6 +15096,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15144,41 +15146,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15223,58 +15225,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15299,23 +15301,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15341,7 +15343,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15372,7 +15374,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15401,7 +15403,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15430,7 +15432,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15459,7 +15461,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15488,7 +15490,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15517,7 +15519,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15548,7 +15550,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15577,7 +15579,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15606,7 +15608,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15635,7 +15637,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16866,6 +16868,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16877,13 +16886,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="58" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -300,34 +300,16 @@
     <t>Xóa log</t>
   </si>
   <si>
-    <t>Cable kết nối RFID</t>
-  </si>
-  <si>
     <t>SL: 13</t>
   </si>
   <si>
-    <t>Anten GPS</t>
-  </si>
-  <si>
     <t>SL: 3</t>
-  </si>
-  <si>
-    <t>Anten GSM</t>
   </si>
   <si>
     <t>SL: 2</t>
   </si>
   <si>
     <t>RFID</t>
-  </si>
-  <si>
-    <t>SL: 14</t>
-  </si>
-  <si>
-    <t>Dây nguồn H5</t>
-  </si>
-  <si>
-    <t>Dây mở rộng H5</t>
   </si>
   <si>
     <t>AT Viêt Nam</t>
@@ -346,15 +328,6 @@
   </si>
   <si>
     <t>WM21051100S0971/00BD000D01</t>
-  </si>
-  <si>
-    <t>mdrv.vnetgps.com,21083</t>
-  </si>
-  <si>
-    <t>H5_20_V3323_T211218.95</t>
-  </si>
-  <si>
-    <t>H5_20_V3327_T220215.04</t>
   </si>
   <si>
     <t>TG102SE</t>
@@ -384,9 +357,6 @@
     <t>LK,NCFW</t>
   </si>
   <si>
-    <t>Thiết bị lỗi khay sim, không upgrade  đươc FW</t>
-  </si>
-  <si>
     <t>H5_20_V3327_T220515.04</t>
   </si>
   <si>
@@ -406,6 +376,72 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Không sửa chữa, nhập kho</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim, không upgrade FW cũ</t>
+  </si>
+  <si>
+    <t>Không upgrade FW cũ</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nhập kho</t>
+  </si>
+  <si>
+    <t>Thay khay sim, cấu hình lại thiết bị, nhập kho</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW,cấu hình lại thiết bị, nhập kho</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>SL: 16</t>
+  </si>
+  <si>
+    <t>SL: 1</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>ZM21040101S0018/ 009901B923</t>
+  </si>
+  <si>
+    <t>Không có dây nguồn test</t>
+  </si>
+  <si>
+    <t>Nhập kho test lại sau</t>
+  </si>
+  <si>
+    <t>Dây kết bình thường</t>
+  </si>
+  <si>
+    <t>Anten kết nối bình thường</t>
+  </si>
+  <si>
+    <t>Nhập trả kho</t>
+  </si>
+  <si>
+    <t>Cable kết nối RFID (VNSH01)</t>
+  </si>
+  <si>
+    <t>Anten GPS (VNSH01)</t>
+  </si>
+  <si>
+    <t>Anten GSM (VNSH01)</t>
+  </si>
+  <si>
+    <t>Dây nguồn (VNSH01)</t>
+  </si>
+  <si>
+    <t>Dây mở rộng (VNSH01)</t>
+  </si>
+  <si>
+    <t>Đế chân (VNSH01)</t>
   </si>
 </sst>
 </file>
@@ -860,30 +896,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,6 +913,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1244,41 +1280,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1323,58 +1359,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
@@ -1399,23 +1435,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,7 +1465,7 @@
         <v>44883</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E6" s="72">
         <v>862631034711555</v>
@@ -1440,36 +1476,36 @@
       </c>
       <c r="H6" s="60"/>
       <c r="I6" s="61" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M6" s="64" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1500,7 +1536,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1565,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +1594,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1587,7 +1623,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1652,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1681,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1676,7 +1712,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1705,7 +1741,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1734,7 +1770,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1799,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3479,6 +3515,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3490,13 +3533,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3507,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3540,41 +3576,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3619,58 +3655,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -3695,23 +3731,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3723,27 +3759,35 @@
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="60" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
-      <c r="H6" s="60"/>
+      <c r="H6" s="62" t="s">
+        <v>121</v>
+      </c>
       <c r="I6" s="61"/>
       <c r="J6" s="62"/>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="64" t="s">
+        <v>122</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
+      <c r="O6" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3755,29 +3799,17 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="59">
-        <v>44882</v>
-      </c>
+      <c r="B7" s="59"/>
       <c r="C7" s="54"/>
-      <c r="D7" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>97</v>
-      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
-        <v>100</v>
-      </c>
+      <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>102</v>
-      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3786,7 +3818,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3796,16 +3828,10 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="59">
-        <v>44882</v>
-      </c>
+      <c r="B8" s="59"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>98</v>
-      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
       <c r="H8" s="60"/>
@@ -3821,7 +3847,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3831,16 +3857,10 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="59">
-        <v>44882</v>
-      </c>
+      <c r="B9" s="59"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>99</v>
-      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="60"/>
@@ -3856,7 +3876,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3885,7 +3905,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3914,7 +3934,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3943,7 +3963,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3974,7 +3994,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4023,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4032,7 +4052,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4061,7 +4081,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4830,7 +4850,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -5777,13 +5797,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5795,6 +5808,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5805,8 +5825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5838,41 +5858,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5917,58 +5937,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -5993,23 +6013,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,35 +6039,47 @@
       <c r="B6" s="59">
         <v>44882</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59">
+        <v>44888</v>
+      </c>
       <c r="D6" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
       <c r="H6" s="60"/>
       <c r="I6" s="51" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="64" t="s">
+        <v>110</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="65"/>
+      <c r="O6" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6062,35 +6094,47 @@
       <c r="B7" s="59">
         <v>44882</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="59">
+        <v>44888</v>
+      </c>
       <c r="D7" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
       <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6103,31 +6147,47 @@
       <c r="B8" s="59">
         <v>44882</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="59">
+        <v>44888</v>
+      </c>
       <c r="D8" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="K8" s="55" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>114</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6140,35 +6200,49 @@
       <c r="B9" s="59">
         <v>44882</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="59">
+        <v>44888</v>
+      </c>
       <c r="D9" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="60"/>
       <c r="I9" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K9" s="38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="39"/>
+        <v>103</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6181,33 +6255,51 @@
       <c r="B10" s="59">
         <v>44882</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="59">
+        <v>44888</v>
+      </c>
       <c r="D10" s="60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H10" s="60"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6236,7 +6328,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6265,7 +6357,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6296,7 +6388,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6325,7 +6417,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6354,7 +6446,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6383,7 +6475,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6501,7 +6593,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6533,7 +6625,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6565,7 +6657,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6714,7 +6806,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -6842,7 +6934,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6970,7 +7062,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7034,7 +7126,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7152,7 +7244,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8099,13 +8191,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8117,6 +8202,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8127,8 +8219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8160,39 +8252,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8237,58 +8331,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -8313,23 +8407,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8339,29 +8433,39 @@
       <c r="B6" s="59">
         <v>44882</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59">
+        <v>44888</v>
+      </c>
       <c r="D6" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>84</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>85</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="J6" s="62" t="s">
+        <v>123</v>
+      </c>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64"/>
+      <c r="O6" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8376,29 +8480,39 @@
       <c r="B7" s="59">
         <v>44882</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="59">
+        <v>44888</v>
+      </c>
       <c r="D7" s="60" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
+      <c r="O7" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8411,29 +8525,39 @@
       <c r="B8" s="59">
         <v>44882</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="59">
+        <v>44888</v>
+      </c>
       <c r="D8" s="60" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
+      <c r="O8" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8446,29 +8570,39 @@
       <c r="B9" s="59">
         <v>44882</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="59">
+        <v>44888</v>
+      </c>
       <c r="D9" s="60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
+      <c r="O9" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8481,12 +8615,14 @@
       <c r="B10" s="59">
         <v>44882</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="59">
+        <v>44888</v>
+      </c>
       <c r="D10" s="57" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -8495,15 +8631,21 @@
       <c r="J10" s="1"/>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
+      <c r="O10" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8516,12 +8658,14 @@
       <c r="B11" s="59">
         <v>44882</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="59">
+        <v>44888</v>
+      </c>
       <c r="D11" s="57" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -8530,15 +8674,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
+      <c r="O11" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8548,10 +8698,18 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="59">
+        <v>44882</v>
+      </c>
+      <c r="C12" s="59">
+        <v>44888</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="56"/>
@@ -8559,15 +8717,21 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
+      <c r="O12" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8598,7 +8762,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8627,7 +8791,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8656,7 +8820,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8685,7 +8849,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10401,6 +10565,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10412,13 +10583,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10462,41 +10626,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10541,58 +10705,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -10617,23 +10781,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10685,7 +10849,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10740,7 +10904,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10795,7 +10959,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10850,7 +11014,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10907,7 +11071,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10936,7 +11100,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10965,7 +11129,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10996,7 +11160,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11025,7 +11189,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11054,7 +11218,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11083,7 +11247,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12789,6 +12953,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12800,13 +12971,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12850,41 +13014,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12929,58 +13093,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -13005,23 +13169,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13075,7 +13239,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13106,7 +13270,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13135,7 +13299,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13164,7 +13328,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13193,7 +13357,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13222,7 +13386,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13251,7 +13415,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13282,7 +13446,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13311,7 +13475,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13340,7 +13504,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13369,7 +13533,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15085,6 +15249,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15096,13 +15267,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15146,41 +15310,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15225,58 +15389,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15301,23 +15465,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15343,7 +15507,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15374,7 +15538,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15403,7 +15567,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15432,7 +15596,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15461,7 +15625,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15490,7 +15654,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15519,7 +15683,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15550,7 +15714,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15579,7 +15743,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15608,7 +15772,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15637,7 +15801,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16868,13 +17032,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16886,6 +17043,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>Đế chân (VNSH01)</t>
+  </si>
+  <si>
+    <t>Sử dụng bình thường</t>
+  </si>
+  <si>
+    <t>Dây bị cắt</t>
   </si>
 </sst>
 </file>
@@ -896,6 +902,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,30 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,41 +1286,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1359,58 +1365,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
@@ -1435,23 +1441,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1511,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1536,7 +1542,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1565,7 +1571,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1600,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1629,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1652,7 +1658,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1687,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1712,7 +1718,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1747,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1776,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3515,13 +3521,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3533,6 +3532,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3543,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3576,41 +3582,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3655,58 +3661,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -3731,23 +3737,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3787,7 +3793,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3818,7 +3824,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3847,7 +3853,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3876,7 +3882,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3905,7 +3911,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3934,7 +3940,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3969,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3994,7 +4000,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4023,7 +4029,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4052,7 +4058,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4081,7 +4087,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5797,6 +5803,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5808,13 +5821,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5825,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S10"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5858,41 +5864,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5937,58 +5943,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -6013,23 +6019,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6048,16 +6054,16 @@
       <c r="E6" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="60"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="61" t="s">
         <v>104</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="63" t="s">
         <v>103</v>
       </c>
       <c r="L6" s="64"/>
@@ -6077,9 +6083,9 @@
       <c r="R6" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="73"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6103,38 +6109,38 @@
       <c r="E7" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="L7" s="64"/>
+      <c r="M7" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P7" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6156,38 +6162,38 @@
       <c r="E8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39" t="s">
+      <c r="L8" s="64"/>
+      <c r="M8" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="62"/>
+      <c r="O8" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P8" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6209,40 +6215,40 @@
       <c r="E9" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="60"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="62"/>
+      <c r="O9" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6261,45 +6267,45 @@
       <c r="D10" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="60" t="s">
         <v>109</v>
       </c>
       <c r="H10" s="60"/>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39" t="s">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="62"/>
+      <c r="O10" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P10" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6310,25 +6316,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="59"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="73"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6357,7 +6363,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6388,7 +6394,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6417,7 +6423,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6446,7 +6452,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6475,7 +6481,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8191,6 +8197,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8202,13 +8215,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8219,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8228,7 +8234,7 @@
     <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="19" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
@@ -8252,41 +8258,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8331,58 +8337,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -8407,23 +8413,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8444,7 +8450,9 @@
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="I6" s="61"/>
       <c r="J6" s="62" t="s">
         <v>123</v>
@@ -8465,7 +8473,7 @@
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8491,7 +8499,9 @@
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="I7" s="51"/>
       <c r="J7" s="1" t="s">
         <v>124</v>
@@ -8512,7 +8522,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8536,7 +8546,9 @@
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="H8" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
         <v>124</v>
@@ -8557,7 +8569,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8581,7 +8593,9 @@
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="H9" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
         <v>75</v>
@@ -8602,7 +8616,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8628,7 +8642,9 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
       <c r="M10" s="64" t="s">
@@ -8645,7 +8661,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8669,7 +8685,9 @@
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
@@ -8688,7 +8706,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8731,7 +8749,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8762,7 +8780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8791,7 +8809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8820,7 +8838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8849,7 +8867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10565,13 +10583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10583,6 +10594,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10626,41 +10644,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10705,58 +10723,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -10781,23 +10799,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10849,7 +10867,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10904,7 +10922,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10959,7 +10977,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11014,7 +11032,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11071,7 +11089,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11100,7 +11118,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11129,7 +11147,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11160,7 +11178,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11189,7 +11207,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11218,7 +11236,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11247,7 +11265,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12953,13 +12971,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12971,6 +12982,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13014,41 +13032,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13093,58 +13111,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -13169,23 +13187,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13239,7 +13257,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13270,7 +13288,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13299,7 +13317,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13328,7 +13346,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13357,7 +13375,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13386,7 +13404,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13415,7 +13433,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13446,7 +13464,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13475,7 +13493,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13504,7 +13522,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13533,7 +13551,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15249,13 +15267,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15267,6 +15278,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15310,41 +15328,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15389,58 +15407,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15465,23 +15483,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15507,7 +15525,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15538,7 +15556,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15567,7 +15585,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15596,7 +15614,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15625,7 +15643,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15654,7 +15672,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15683,7 +15701,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15714,7 +15732,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15743,7 +15761,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15772,7 +15790,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15801,7 +15819,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17032,6 +17050,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17043,13 +17068,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_ATVietNam.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang11\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang11\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="58" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="2">VNSH01!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'X1'!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -318,18 +318,6 @@
     <t>VNSH01</t>
   </si>
   <si>
-    <t>WM21051100S0902/00BD000A2B</t>
-  </si>
-  <si>
-    <t>WM21051100S0358/00BD000B6F</t>
-  </si>
-  <si>
-    <t>WM21051100S0324/00BD000B4C</t>
-  </si>
-  <si>
-    <t>WM21051100S0971/00BD000D01</t>
-  </si>
-  <si>
     <t>TG102SE</t>
   </si>
   <si>
@@ -363,13 +351,7 @@
     <t>125.212.203.250,21083</t>
   </si>
   <si>
-    <t>Lỗi GSM giao tiếp module không tồn tại</t>
-  </si>
-  <si>
     <t>H5_20_V334_T21065.02</t>
-  </si>
-  <si>
-    <t>VM21051100S0878/00BD000C6A</t>
   </si>
   <si>
     <t>Full phụ kiện</t>
@@ -448,6 +430,24 @@
   </si>
   <si>
     <t>Dây bị cắt</t>
+  </si>
+  <si>
+    <t>WM21051100S0902 / 00BD000A2B</t>
+  </si>
+  <si>
+    <t>WM21051100S0358 / 00BD000B6F</t>
+  </si>
+  <si>
+    <t>WM21051100S0324 / 00BD000B4C</t>
+  </si>
+  <si>
+    <t>WM21051100S0971 / 00BD000D01</t>
+  </si>
+  <si>
+    <t>VM21051100S0878 / 00BD000C6A</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhân sim, lỗi GSM giao tiếp module không tồn tại</t>
   </si>
 </sst>
 </file>
@@ -902,30 +902,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -943,6 +919,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,41 +1286,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1365,58 +1365,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
@@ -1441,23 +1441,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>44883</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="72">
         <v>862631034711555</v>
@@ -1482,36 +1482,36 @@
       </c>
       <c r="H6" s="60"/>
       <c r="I6" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="64" t="s">
         <v>95</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>99</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="77"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1542,7 +1542,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="77"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="77"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1718,7 +1718,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3521,6 +3521,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3532,13 +3539,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3582,41 +3582,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3661,58 +3661,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,35 +3765,35 @@
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
       <c r="H6" s="62" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="62"/>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
       <c r="M6" s="64" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3824,7 +3824,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4000,7 +4000,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5803,13 +5803,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5821,6 +5814,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5831,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5864,41 +5864,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5943,58 +5943,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="75" t="s">
         <v>1</v>
       </c>
@@ -6019,23 +6019,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6052,30 +6052,30 @@
         <v>89</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
       <c r="I6" s="61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="64" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="62" t="s">
         <v>18</v>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="76"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6107,40 +6107,40 @@
         <v>89</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
       <c r="I7" s="61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N7" s="62"/>
       <c r="O7" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6160,40 +6160,40 @@
         <v>89</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N8" s="62"/>
       <c r="O8" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R8" s="65" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6213,32 +6213,32 @@
         <v>89</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
       <c r="I9" s="61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M9" s="64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N9" s="62"/>
       <c r="O9" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="62" t="s">
         <v>19</v>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6268,34 +6268,34 @@
         <v>89</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="64" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N10" s="62"/>
       <c r="O10" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="62" t="s">
         <v>19</v>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="73"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6394,7 +6394,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8197,13 +8197,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8215,6 +8208,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8225,7 +8225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -8258,41 +8258,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8337,58 +8337,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -8413,23 +8413,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8443,7 +8443,7 @@
         <v>44888</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E6" s="72" t="s">
         <v>84</v>
@@ -8451,29 +8451,29 @@
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
       <c r="H6" s="57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="62" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K6" s="63"/>
       <c r="L6" s="64"/>
       <c r="M6" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="65"/>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8492,7 +8492,7 @@
         <v>44888</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7" s="72" t="s">
         <v>85</v>
@@ -8500,29 +8500,29 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>44888</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>85</v>
@@ -8547,29 +8547,29 @@
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K8" s="55"/>
       <c r="L8" s="39"/>
       <c r="M8" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8589,12 +8589,12 @@
         <v>87</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
@@ -8603,20 +8603,20 @@
       <c r="K9" s="1"/>
       <c r="L9" s="39"/>
       <c r="M9" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>44888</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>86</v>
@@ -8643,25 +8643,25 @@
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
       <c r="M10" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>44888</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>85</v>
@@ -8686,27 +8686,27 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="57" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
       <c r="M11" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8723,10 +8723,10 @@
         <v>44888</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -8736,20 +8736,20 @@
       <c r="K12" s="1"/>
       <c r="L12" s="39"/>
       <c r="M12" s="64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="62" t="s">
         <v>68</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8780,7 +8780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8809,7 +8809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8867,7 +8867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10583,6 +10583,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10594,13 +10601,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10644,41 +10644,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10723,58 +10723,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -10799,23 +10799,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="S6" s="73"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="S7" s="73"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="S8" s="73"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="S9" s="73"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="S10" s="73"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="R11" s="65"/>
       <c r="S11" s="73"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11178,7 +11178,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11207,7 +11207,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11265,7 +11265,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12971,6 +12971,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12982,13 +12989,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13032,41 +13032,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13111,58 +13111,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -13187,23 +13187,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13288,7 +13288,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13375,7 +13375,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13404,7 +13404,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13464,7 +13464,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13493,7 +13493,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13522,7 +13522,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13551,7 +13551,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15267,6 +15267,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15278,13 +15285,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15328,41 +15328,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15407,58 +15407,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15483,23 +15483,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15525,7 +15525,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15556,7 +15556,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15585,7 +15585,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15614,7 +15614,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15643,7 +15643,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15701,7 +15701,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15732,7 +15732,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15761,7 +15761,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15819,7 +15819,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17050,13 +17050,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17068,6 +17061,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
